--- a/Student Hostel Management System.xlsx
+++ b/Student Hostel Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rithikka\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957F28A-9118-4BAD-ACA1-2AF30C2B76D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF296225-8F5D-4FF9-8CEA-E47E9676B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{691FF1F9-4855-4E10-AEBC-9834B4DEA4F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{691FF1F9-4855-4E10-AEBC-9834B4DEA4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FDACD4-20E5-44B4-9FFE-88453B6C13B7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D31" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,20 +800,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
@@ -3046,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A373A9-02C8-403D-92D5-99DF69111B76}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/Student Hostel Management System.xlsx
+++ b/Student Hostel Management System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rithikka\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF296225-8F5D-4FF9-8CEA-E47E9676B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0B082-551C-4161-95CD-BBC5ED467AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{691FF1F9-4855-4E10-AEBC-9834B4DEA4F6}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
